--- a/data/trans_camb/P24_8_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P24_8_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>13,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,93</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7,66</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 3,55</t>
+          <t>-4,81; 12,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 4,88</t>
+          <t>-5,7; 9,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 3,21</t>
+          <t>-3,56; 16,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 10,63</t>
+          <t>-1,8; 28,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 8,59</t>
+          <t>-14,6; 13,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 7,94</t>
+          <t>-14,88; 12,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 5,52</t>
+          <t>-11,33; 18,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 4,98</t>
+          <t>-12,49; 19,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 5,02</t>
+          <t>-8,91; 10,31</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-9,01; 7,53</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-5,9; 14,05</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,42; 17,97</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-40,02%</t>
+          <t>99,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-31,06%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-42,41%</t>
+          <t>217,85%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>558,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>-6,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>-6,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-1,43%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-3,1%</t>
+          <t>17,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-9,09%</t>
+          <t>5,17%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-7,3%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>42,2%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>82,18%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-93,94; 159,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-85,59; 240,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-90,24; 149,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,96; 138,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,59; 119,44</t>
+          <t>-71,35; 174,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-56,67; 104,27</t>
+          <t>-68,28; 151,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-49,49; 85,28</t>
+          <t>-60,13; 196,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-51,03; 76,63</t>
+          <t>-60,6; 226,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-49,92; 77,9</t>
+          <t>-67,01; 216,91</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-67,52; 148,96</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-47,36; 284,42</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-23,42; 353,95</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,78</t>
+          <t>-5,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,68</t>
+          <t>-5,64</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,81</t>
+          <t>-4,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-5,72</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-3,07</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,46</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,91</t>
+          <t>-2,25</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-4,44</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,46</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-3,75</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,8; -0,72</t>
+          <t>-22,23; 1,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,8; -1,53</t>
+          <t>-23,45; 0,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,74; -1,19</t>
+          <t>-22,34; 1,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 3,63</t>
+          <t>-22,1; 1,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 3,09</t>
+          <t>-7,2; 8,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 4,72</t>
+          <t>-10,32; 4,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,96; -0,3</t>
+          <t>-7,41; 8,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,2; -0,62</t>
+          <t>-8,8; 7,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 0,03</t>
+          <t>-10,36; 2,54</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-12,12; 0,39</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-10,51; 2,43</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-12,23; 1,17</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-62,42%</t>
+          <t>-52,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-61,48%</t>
+          <t>-58,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-62,68%</t>
+          <t>-50,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,89%</t>
+          <t>-59,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-15,93%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-3,98%</t>
+          <t>-19,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-33,77%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-36,69%</t>
+          <t>-8,46%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-32,17%</t>
+          <t>-17,51%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-34,51%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-19,17%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-29,18%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-84,17; 0,06</t>
+          <t>-93,56; 47,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-86,45; -15,32</t>
+          <t>-94,69; 40,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-86,85; -11,01</t>
+          <t>-90,94; 62,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,11; 35,21</t>
+          <t>-95,82; 45,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-46,56; 31,16</t>
+          <t>-36,56; 70,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,92; 46,41</t>
+          <t>-49,41; 42,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-58,32; -2,34</t>
+          <t>-38,02; 74,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-60,13; -3,51</t>
+          <t>-44,16; 58,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-54,05; 2,02</t>
+          <t>-57,64; 24,91</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-64,42; 7,62</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-57,32; 24,93</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-64,31; 14,0</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-4,07</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-1,7</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,04</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 5,1</t>
+          <t>-4,11; 7,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 2,88</t>
+          <t>-5,18; 5,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 9,08</t>
+          <t>-4,47; 10,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 1,87</t>
+          <t>-6,19; 2,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 5,57</t>
+          <t>-10,08; 2,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 4,08</t>
+          <t>-7,81; 5,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 2,04</t>
+          <t>-8,44; 4,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 3,08</t>
+          <t>-7,24; 5,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 4,13</t>
+          <t>-5,85; 2,43</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-4,75; 3,51</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-4,91; 4,86</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-5,04; 3,15</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>33,65%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-19,3%</t>
+          <t>-5,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>39,23%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-29,73%</t>
+          <t>-34,87%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>-38,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-9,21%</t>
+          <t>-10,45%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-17,53%</t>
+          <t>-19,45%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-5,03%</t>
+          <t>-4,36%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>-22,65%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-9,82%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-10,25%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-13,77%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-59,42; 218,37</t>
+          <t>-72,49; 569,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-77,51; 142,42</t>
+          <t>-100,0; 493,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,31; 414,23</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-62,05; 25,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,98; 69,71</t>
+          <t>-72,5; 29,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,33; 51,57</t>
+          <t>-57,7; 64,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-48,11; 35,21</t>
+          <t>-60,78; 55,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,99; 52,84</t>
+          <t>-53,65; 84,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-35,44; 69,75</t>
+          <t>-59,38; 47,04</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-49,26; 66,55</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-52,25; 89,28</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-53,73; 60,31</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,89</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,32; -0,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,63; -0,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,21; -0,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 2,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 3,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 0,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 0,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 0,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-44,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-49,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-41,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-12,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-6,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-3,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-24,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-23,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-19,09%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-70,7; -0,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-73,61; -6,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-69,94; 3,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,99; 22,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,39; 28,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,05; 31,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-43,41; 1,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-42,32; 3,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-37,97; 6,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,65</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-2,78</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,26</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-1,69</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,97</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-1,65</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-2,45</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,8</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-10,31; 2,38</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-11,2; 1,08</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-9,74; 3,08</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-9,29; 2,94</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-6,44; 3,18</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-6,68; 2,91</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,9; 4,96</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-4,88; 5,13</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; 1,55</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-6,27; 0,56</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-5,0; 2,68</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-4,59; 2,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-25,76%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-43,43%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-19,77%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-15,88%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-12,42%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-14,49%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-0,14%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0,15%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-16,14%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-23,85%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-7,83%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-6,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-78,3; 75,14</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-85,03; 39,34</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-74,2; 95,78</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-77,13; 84,96</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-39,11; 31,03</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-41,71; 28,28</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-30,48; 45,05</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-30,49; 46,63</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-43,93; 19,8</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-47,45; 8,35</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-39,11; 32,32</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-35,95; 36,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
